--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/10/seed4/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.018599999999992</v>
+        <v>5.971499999999988</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.154999999999994</v>
+        <v>-7.288199999999997</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.39649999999997</v>
+        <v>-20.49569999999997</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.816399999999994</v>
+        <v>-7.679399999999995</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>12.03759999999999</v>
+        <v>12.22839999999999</v>
       </c>
     </row>
     <row r="13">
@@ -729,12 +729,12 @@
         <v>-6.63</v>
       </c>
       <c r="E17" t="n">
-        <v>13.25650000000001</v>
+        <v>13.57350000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.90940000000002</v>
+        <v>-22.85640000000001</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.06630000000002</v>
+        <v>-22.11570000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.27280000000001</v>
+        <v>-13.27090000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
